--- a/data/human/LSR1RoBVisuals/robdizziness.xlsx
+++ b/data/human/LSR1RoBVisuals/robdizziness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfriedrich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfrie\Documents\GitHub\LSR1_anhedonia_H\data\human\LSR1RoBVisuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE7DFEB-AEB5-40E3-B887-3438B0D29A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77402143-376C-4EDD-8988-FEE5C70F8133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="560" windowWidth="15270" windowHeight="10240" xr2:uid="{03C01BC9-E426-44D9-B5AC-FF27706FF93B}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="18780" windowHeight="12792" xr2:uid="{03C01BC9-E426-44D9-B5AC-FF27706FF93B}"/>
   </bookViews>
   <sheets>
     <sheet name="dizziness" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="36">
   <si>
     <t>Study</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>White (1984)</t>
+  </si>
+  <si>
+    <t>Clayton (2006a)</t>
+  </si>
+  <si>
+    <t>Clayton (2006b)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +204,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -286,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -335,6 +347,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,18 +668,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBAB6FD-72D0-4CCC-9248-075705E3F8AE}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A6" sqref="A6:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -706,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -729,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -752,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
@@ -775,463 +794,509 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="B14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="B15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="B16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15" t="s">
         <v>8</v>
       </c>
     </row>
